--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1292002.129934682</v>
+        <v>1342883.213295128</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7131353.881828773</v>
+        <v>7601590.6070758</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>165.7753528063593</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>49.53842828501017</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.70658994605463</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>218.775754413495</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -902,19 +904,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>176.3225964884665</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>205.0873641277763</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>139.274359396945</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>118.969354094449</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.16966267754562</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1142,16 +1144,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>80.11775047948045</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1293,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>163.507447275284</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>7.098427391118505</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,13 +1378,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>349.6380929811756</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1537,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1582,13 +1584,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>151.7166795520842</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>111.3190970511839</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>369.5042170507269</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1658,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>59.70406721933355</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>8.489174413579757</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1853,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>111.6817749316116</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2242,10 +2244,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>221.5389288874897</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>111.1800590294273</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>153.2284282554369</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2555,7 +2557,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>31.11661068715854</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.19680371174562</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2959,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>154.5259717924262</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>173.1455268812269</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>119.3016407709871</v>
+        <v>112.2192622328896</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,22 +3663,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>107.6884504520651</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.6836051444942</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>238.0472340876739</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>127.841227082421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3904,16 +3906,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.25402641018511</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>71.78780711257758</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>355.9454719562621</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>187.21057685784</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>89.44505231198379</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1083.523863310845</v>
+        <v>966.965586482338</v>
       </c>
       <c r="C2" t="n">
-        <v>1060.663537364549</v>
+        <v>540.0648564956382</v>
       </c>
       <c r="D2" t="n">
-        <v>1041.411320589954</v>
+        <v>520.8126397210425</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>94.83569986890006</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924753</v>
@@ -4328,52 +4330,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>1862.189048931929</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>1504.699634058179</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>1108.308284358525</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>1100.628689566677</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y2" t="n">
-        <v>1099.331823561971</v>
+        <v>982.7735467334641</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4406,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>874.3078922751886</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1424.973427259627</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1771.166545545054</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O3" t="n">
-        <v>1771.166545545054</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
         <v>1771.166545545054</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.3325623957711</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>216.3599992746871</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>216.3599992746871</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4516,22 +4518,22 @@
         <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109778</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1796.086427374292</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C5" t="n">
-        <v>1773.226101427997</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>1349.933480612997</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4574,19 +4576,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>549.9383681074144</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>549.9383681074144</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1195.874332975104</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
         <v>1307.021068682275</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>830.4732064905781</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C7" t="n">
-        <v>658.5006433694941</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D7" t="n">
-        <v>495.1838704962648</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>328.9756646491184</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>1861.400839946408</v>
       </c>
       <c r="V7" t="n">
-        <v>1764.398243894584</v>
+        <v>1579.689372554437</v>
       </c>
       <c r="W7" t="n">
-        <v>1489.545840067097</v>
+        <v>1304.83696872695</v>
       </c>
       <c r="X7" t="n">
-        <v>1246.981943512902</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="Y7" t="n">
-        <v>1020.639175202644</v>
+        <v>835.9303038624969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>972.9074190595574</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0470931132616</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>930.7948763386659</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>504.8179364865234</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>1006.023847611597</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M8" t="n">
-        <v>1556.689382596036</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762723</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.799903930471</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1011.462633885361</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M9" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1145.829295018124</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002562</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>954.6576162570559</v>
+        <v>962.9877020259423</v>
       </c>
       <c r="C10" t="n">
-        <v>789.4985786052539</v>
+        <v>791.0151389048583</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1818057320246</v>
+        <v>627.698366031629</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>461.4901601844825</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1981.571904688275</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1701.38745618858</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1419.675988796609</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1144.823584969122</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>1144.823584969122</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="Y10" t="n">
-        <v>1144.823584969122</v>
+        <v>1153.153670738008</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1600.810541971062</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1173.909811984362</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>750.6171911693625</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>750.6171911693625</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>750.6171911693625</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>715.2263527642958</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>1515.667965162099</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559901</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.107524839607</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2837.716175139954</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2425.996176307702</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.658906262592</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>865.123762894595</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.928168679499</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>832.2052303037439</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>660.2326671826598</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>496.9158943094305</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>330.7076884622841</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>330.7076884622841</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>164.4507187565162</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1631.332998077397</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V13" t="n">
-        <v>1349.621530685426</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W13" t="n">
-        <v>1074.769126857939</v>
+        <v>1425.821963957422</v>
       </c>
       <c r="X13" t="n">
-        <v>832.2052303037439</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="Y13" t="n">
-        <v>832.2052303037439</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1300.447287858394</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.447287858394</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>877.1546670433945</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>877.1546670433945</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>503.9180841638723</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332094</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>715.2263527642958</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.667965162099</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>2316.109577559901</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.551189957705</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>4217.987261371733</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3129.740230712748</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2871.38532130916</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2513.895906435409</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2117.504556735757</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1705.784557903504</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1300.447287858394</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679215</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>272.4865562816963</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>1072.928168679499</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>712.9161576626361</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="C16" t="n">
-        <v>540.9435945415521</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="D16" t="n">
-        <v>540.9435945415521</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E16" t="n">
-        <v>374.7353886944056</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F16" t="n">
-        <v>374.7353886944056</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>208.4784189886378</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>1953.266910479596</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>1671.555443087625</v>
       </c>
       <c r="W16" t="n">
-        <v>947.8338496229746</v>
+        <v>1396.703039260138</v>
       </c>
       <c r="X16" t="n">
-        <v>939.2589259728941</v>
+        <v>1154.139142705943</v>
       </c>
       <c r="Y16" t="n">
-        <v>712.9161576626361</v>
+        <v>927.7963743956848</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5522,16 +5524,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710919</v>
+        <v>772.98449592559</v>
       </c>
       <c r="L18" t="n">
-        <v>3306.448039710919</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M18" t="n">
-        <v>4225.654392279956</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>4225.654392279956</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.2543031032136</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C19" t="n">
-        <v>847.2543031032136</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9375302299843</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7293243828378</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2169.905867150662</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1926.566519376562</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1646.382070876867</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1364.670603484896</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1089.818199657409</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>847.2543031032136</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.2543031032136</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5759,16 +5761,16 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5838,13 +5840,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344085</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>154.4092158344085</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5947,13 +5949,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1036.530120513549</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="23">
@@ -5999,16 +6001,16 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P23" t="n">
-        <v>4935.721337874071</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.8257932127802</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C25" t="n">
-        <v>697.8532300916962</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D25" t="n">
-        <v>534.5364572184669</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E25" t="n">
-        <v>368.3282513713204</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6181,16 +6183,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.242093594462</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1112.389689766975</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>869.8257932127802</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>869.8257932127802</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,40 +6214,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="27">
@@ -6312,13 +6314,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>739.6560874287652</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1828.971033901635</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.971033901635</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
         <v>1828.971033901635</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3375.975369221655</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>3344.544449335636</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>3344.544449335636</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4871.796322517327</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4591.611874017632</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4309.90040662566</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>4035.048002798173</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>3792.484106243979</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>3566.14133793372</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,40 +6451,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6497,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="30">
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>424.597759447345</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>258.3895536001985</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6646,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1955.492679006434</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1673.781211614463</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1673.781211614463</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X31" t="n">
-        <v>1431.217315060268</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.87454675001</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
         <v>4997.579335409525</v>
@@ -6786,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>913.7427045492574</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>913.7427045492574</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D34" t="n">
-        <v>750.4259316760281</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1657.501773241197</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1382.64936941371</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1140.085472859515</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>913.7427045492574</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6935,22 +6937,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>896.1687373222098</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C37" t="n">
-        <v>724.1961742011258</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D37" t="n">
-        <v>560.8794013278965</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E37" t="n">
-        <v>394.67119548075</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="F37" t="n">
-        <v>222.8094212553105</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7135,10 +7137,10 @@
         <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>1312.677474344533</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y37" t="n">
-        <v>1086.334706034276</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
         <v>3833.214576747414</v>
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>850.6571429016585</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C40" t="n">
-        <v>741.8809303238149</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D40" t="n">
-        <v>578.5641574505885</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7351,31 +7353,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.165879923982</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X40" t="n">
-        <v>1267.165879923982</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y40" t="n">
-        <v>1040.823111613724</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2174.023995691257</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1747.123265704557</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.990713096051</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1192.013773243908</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>766.8895914333086</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>362.5505290227573</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>715.2263527642958</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>1515.667965162099</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>2316.109577559901</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>3116.551189957705</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>3116.551189957705</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="P41" t="n">
-        <v>3116.551189957705</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2975.752615436019</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>2975.752615436019</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2579.361265736366</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2579.361265736366</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2174.023995691257</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679215</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679215</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M42" t="n">
-        <v>272.4865562816963</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N42" t="n">
-        <v>1072.928168679499</v>
+        <v>1779.8768179202</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>671.6018289762691</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="C43" t="n">
-        <v>499.6292658551851</v>
+        <v>3734.642775939529</v>
       </c>
       <c r="D43" t="n">
-        <v>336.3124929819558</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E43" t="n">
-        <v>336.3124929819558</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F43" t="n">
-        <v>164.4507187565162</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4507187565162</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2220.596161333976</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2220.596161333976</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.256813559876</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>1697.07236506018</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1415.360897668209</v>
+        <v>4407.810511198358</v>
       </c>
       <c r="W43" t="n">
-        <v>1140.508493840722</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="X43" t="n">
-        <v>897.944597286527</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="Y43" t="n">
-        <v>671.6018289762691</v>
+        <v>3906.615339060613</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1183.889011029887</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>756.9882810431873</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>756.9882810431873</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>756.9882810431873</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>756.9882810431873</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136876</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>1142.793917289187</v>
+        <v>811.7639428804554</v>
       </c>
       <c r="L44" t="n">
-        <v>1943.23552968699</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M44" t="n">
-        <v>2743.677142084793</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N44" t="n">
-        <v>2743.677142084793</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O44" t="n">
-        <v>2778.022045335424</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335424</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2754.827044480653</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2397.337629606903</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>2000.94627990725</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>1589.226281074997</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>1183.889011029887</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>72.12879345870398</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>72.12879345870398</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>72.12879345870398</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>272.4865562816963</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.928168679499</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.77568192936</v>
+        <v>4354.232642596015</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.064214537389</v>
+        <v>4072.521175204045</v>
       </c>
       <c r="W46" t="n">
-        <v>1238.211810709902</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.211810709902</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="Y46" t="n">
-        <v>1147.863273021029</v>
+        <v>3571.3260030663</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>546.3101998434627</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8064,16 +8066,16 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>371.0330466836703</v>
+        <v>96.76900350898819</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8143,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>417.7126065281034</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8222,22 +8224,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>181.710741931019</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>177.8131985346731</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>184.1630016116738</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
-        <v>87.05611188819479</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8471,10 +8473,10 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8544,10 +8546,10 @@
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>180.0446044646217</v>
+        <v>461.8305092169925</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8693,25 +8695,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>695.4273982583842</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093336</v>
+        <v>1035.799731739446</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,13 +8774,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241314</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M12" t="n">
-        <v>233.0002206990998</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>692.8799566205706</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>251.9371478624388</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9006,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>233.0002206990998</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,19 +9172,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>417.8918098719783</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>951.5880457335774</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9264,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9647,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>217.3512730059682</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>117.3609790173131</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,16 +9962,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>666.8880674041833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10124,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,10 +10363,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10832,10 +10834,10 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O38" t="n">
-        <v>763.5414113871921</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>326.6138366035045</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>867.7084382103637</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,19 +11141,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>233.0002206990998</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>831.698770932124</v>
+        <v>70.51375583797689</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>754.6403563518451</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>72.08278082130838</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11379,13 +11381,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>224.8966653233127</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>1003.048909524251</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>50.65757880527025</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>125.6659244626145</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>160.7847827380282</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>51.3687229417668</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>128.5602418056114</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.6490831750732</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>56.75192207444486</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -24145,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>47.18544517283262</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>50.56495090172237</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>50.50354611506967</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>125.6659244626144</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.1362268027146</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>169.0675053131994</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.61718469075893</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>38.61621282745647</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>105.7488258368245</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>45.29275923772308</v>
+        <v>52.37513777582056</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>62.564387037808</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25600,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.858720208685071</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>291.2184675244287</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>22.31420076951348</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>207.1065456054738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>44.35019983018373</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>90.17202715685875</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>134.6342883151716</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490654.0273743181</v>
+        <v>651592.053120265</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490654.0273743181</v>
+        <v>651592.0531202651</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661712.4902842399</v>
+        <v>661712.49028424</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661712.4902842399</v>
+        <v>661712.49028424</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661712.49028424</v>
+        <v>661712.4902842399</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661712.4902842401</v>
+        <v>661712.49028424</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490654.027374318</v>
+        <v>651592.053120265</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490654.027374318</v>
+        <v>651592.0531202651</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407709.8676078142</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="C2" t="n">
-        <v>407709.8676078142</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078143</v>
+        <v>407709.8676078141</v>
       </c>
       <c r="E2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="F2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="G2" t="n">
+        <v>393421.2821962134</v>
+      </c>
+      <c r="H2" t="n">
         <v>393421.2821962135</v>
       </c>
-      <c r="H2" t="n">
-        <v>393421.2821962134</v>
-      </c>
       <c r="I2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="J2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962132</v>
       </c>
       <c r="K2" t="n">
         <v>393421.2821962133</v>
@@ -26347,13 +26349,13 @@
         <v>393421.2821962131</v>
       </c>
       <c r="N2" t="n">
-        <v>393421.2821962135</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="O2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156911</v>
       </c>
       <c r="P2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156912</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>182621.065515899</v>
+      </c>
+      <c r="C4" t="n">
         <v>182621.0655158991</v>
-      </c>
-      <c r="C4" t="n">
-        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
         <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>53631.12390475633</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="F4" t="n">
-        <v>53631.12390475633</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986373</v>
@@ -26439,10 +26441,10 @@
         <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986367</v>
       </c>
       <c r="K4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986365</v>
       </c>
       <c r="L4" t="n">
         <v>72380.62724986371</v>
@@ -26454,10 +26456,10 @@
         <v>72380.62724986373</v>
       </c>
       <c r="O4" t="n">
-        <v>53631.12390475633</v>
+        <v>71271.33883915341</v>
       </c>
       <c r="P4" t="n">
-        <v>53631.12390475633</v>
+        <v>71271.3388391534</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28762.18236025024</v>
+        <v>-28762.1823602501</v>
       </c>
       <c r="C6" t="n">
-        <v>157642.551054487</v>
+        <v>157642.5510544871</v>
       </c>
       <c r="D6" t="n">
-        <v>157642.5510544871</v>
+        <v>157642.5510544869</v>
       </c>
       <c r="E6" t="n">
-        <v>113613.2489661416</v>
+        <v>32642.97605194457</v>
       </c>
       <c r="F6" t="n">
-        <v>188944.2001196038</v>
+        <v>240075.2636685054</v>
       </c>
       <c r="G6" t="n">
-        <v>114400.1929463796</v>
+        <v>235664.9706744386</v>
       </c>
       <c r="H6" t="n">
-        <v>243290.59275792</v>
+        <v>243290.5927579201</v>
       </c>
       <c r="I6" t="n">
-        <v>243290.59275792</v>
+        <v>243290.5927579199</v>
       </c>
       <c r="J6" t="n">
-        <v>97756.92282310345</v>
+        <v>97756.92282310333</v>
       </c>
       <c r="K6" t="n">
         <v>243290.5927579199</v>
@@ -26552,16 +26554,16 @@
         <v>243290.5927579198</v>
       </c>
       <c r="M6" t="n">
-        <v>180416.6557925459</v>
+        <v>70160.10155228013</v>
       </c>
       <c r="N6" t="n">
-        <v>243290.5927579201</v>
+        <v>243290.59275792</v>
       </c>
       <c r="O6" t="n">
-        <v>188944.2001196037</v>
+        <v>240075.2636685052</v>
       </c>
       <c r="P6" t="n">
-        <v>188944.2001196038</v>
+        <v>240075.2636685054</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>255.9418176472617</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>371.3345117074836</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.5577190788904</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.60684960120378</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>245.3945739651545</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27676,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>196.1965332168822</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>30.86879708624022</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>158.4132499202498</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>377.4802179710691</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27862,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>273.7967702455326</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.745390214589179</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>163.0447290920667</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30241,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.429616271214126e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30384,7 +30386,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.757261086117069e-12</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,16 +34786,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>75.42597529544652</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N3" t="n">
-        <v>349.6900184701286</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366176</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34942,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
+        <v>155.2981118204435</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>162.8199733981321</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,10 +35193,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35264,10 +35266,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>158.2737632597931</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>657.1153558257613</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099018</v>
+        <v>998.3684688400139</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099018</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M12" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>657.1153558257613</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>214.3617860522075</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,19 +35892,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>395.492576038645</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>928.4912652212494</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36367,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>181.2265984013702</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>643.7912868918553</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36844,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,10 +37083,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37552,10 +37554,10 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O38" t="n">
-        <v>726.1504520311679</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391573</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>290.8492358086951</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>830.3174788543397</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099018</v>
+        <v>47.34186611575466</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>718.8757555570357</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>34.69182146528428</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>202.3815786090831</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1342883.213295128</v>
+        <v>1342165.22318027</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.683076074</v>
+        <v>698313.6830760738</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>135.7074041394968</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>49.53842828501017</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
@@ -822,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>218.775754413495</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>57.09791961948127</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.0873641277763</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>169.6356194967397</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>118.969354094449</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1135,25 +1135,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>80.11775047948045</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>127.6603223348121</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1302,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>7.098427391118505</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166883</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1584,19 +1584,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188589</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3190970511839</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>29.89949249262188</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.70406721933355</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>51.69511841098192</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -2004,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>57.24387488546072</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9811728869526</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2244,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5389288874897</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>111.1800590294273</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2715,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>154.5259717924262</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>144.0596678020105</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.15466974967032</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>50.27634182650958</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>112.2192622328896</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>238.0472340876739</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>145.2921865528443</v>
       </c>
       <c r="U41" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>71.78780711257758</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -4039,7 +4039,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4155,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>187.21057685784</v>
+        <v>92.01098438110735</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.965586482338</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C2" t="n">
-        <v>540.0648564956382</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D2" t="n">
-        <v>520.8126397210425</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E2" t="n">
-        <v>94.83569986890006</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,22 +4333,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
         <v>2224.911252462377</v>
@@ -4360,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300184</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>984.0704127381697</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.7735467334641</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M3" t="n">
-        <v>595.1637600336857</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
         <v>1771.166545545054</v>
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
@@ -4518,22 +4518,22 @@
         <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2007.737591668685</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1786.751981150003</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1786.751981150003</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4573,22 +4573,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.7643351504313</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C7" t="n">
-        <v>473.7917720293473</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D7" t="n">
-        <v>310.474999156118</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E7" t="n">
         <v>144.2667933089716</v>
@@ -4725,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688275</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U7" t="n">
-        <v>1861.400839946408</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V7" t="n">
-        <v>1579.689372554437</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.83696872695</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X7" t="n">
-        <v>1062.273072172755</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.9303038624969</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,16 +4807,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
         <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
         <v>1218.160237973755</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1664.703751417078</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1664.703751417078</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>2095.961431922162</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>2094.664565917457</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.9877020259423</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>791.0151389048583</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>627.698366031629</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>461.4901601844825</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.496439048266</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.153670738008</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
         <v>1262.305438882635</v>
@@ -5041,28 +5041,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>2994.337835136581</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5117,22 +5117,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="L12" t="n">
-        <v>819.4496289866299</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="M12" t="n">
-        <v>819.4496289866299</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>1787.323460882111</v>
       </c>
       <c r="O12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1819.976963724326</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>1538.265496332355</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W13" t="n">
-        <v>1425.821963957422</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.258067403227</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y13" t="n">
-        <v>1183.258067403227</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2429.413071721394</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>130.278452447295</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5281,19 +5281,19 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4217.987261371733</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="P14" t="n">
         <v>4430.205429563419</v>
@@ -5305,25 +5305,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y14" t="n">
-        <v>2849.261436012924</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N15" t="n">
-        <v>690.5618714473296</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="O15" t="n">
-        <v>690.5618714473296</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="P15" t="n">
-        <v>1362.599788512017</v>
+        <v>1905.589608390358</v>
       </c>
       <c r="Q15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>867.4892357902974</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C16" t="n">
-        <v>867.4892357902974</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D16" t="n">
-        <v>704.1724629170681</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E16" t="n">
-        <v>537.9642570699216</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>366.102482844482</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
@@ -5463,25 +5463,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979291</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.451358979291</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U16" t="n">
-        <v>1953.266910479596</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1671.555443087625</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.703039260138</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X16" t="n">
-        <v>1154.139142705943</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.7963743956848</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="17">
@@ -5527,16 +5527,16 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>772.98449592559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>772.98449592559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>1828.971033901635</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1582.26891798564</v>
       </c>
       <c r="Q18" t="n">
         <v>1828.971033901635</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>326.3817789554961</v>
       </c>
       <c r="C19" t="n">
-        <v>380.7519841446665</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D19" t="n">
-        <v>217.4352112714372</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4352112714372</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,52 +5673,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299903</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358274</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>985.4544125320147</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>742.8905159778197</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>516.5477476675618</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,28 +5740,28 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5840,13 +5840,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1036.530120513549</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>793.966223959354</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>3959.47027938737</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4667.749558545297</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>381.4468456473314</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3442790273841</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M24" t="n">
-        <v>475.3442790273841</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N24" t="n">
-        <v>475.3442790273841</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P24" t="n">
         <v>1364.825557038856</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.7245472657505</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>552.7245472657505</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>440.421457337036</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,22 +6214,22 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
         <v>1007.532766690843</v>
@@ -6262,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>1112.773316863137</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1112.773316863137</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
         <v>1828.971033901635</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6469,22 +6469,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.700581617281</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.951640103982</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6499,16 +6499,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.8870954416583</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C31" t="n">
-        <v>587.9145323205743</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="D31" t="n">
-        <v>424.597759447345</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="E31" t="n">
-        <v>258.3895536001985</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.793760306111</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>986.2298637519162</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.8870954416583</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6715,13 +6715,13 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6785,22 +6785,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>163.0650060822632</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>163.0650060822632</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6952,10 +6952,10 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>971.931772215671</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M36" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.604840768015</v>
+        <v>806.9257087544852</v>
       </c>
       <c r="C37" t="n">
-        <v>481.632277646931</v>
+        <v>634.9531456334012</v>
       </c>
       <c r="D37" t="n">
-        <v>481.632277646931</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E37" t="n">
-        <v>315.4240717997845</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F37" t="n">
-        <v>315.4240717997845</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7125,22 +7125,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W37" t="n">
-        <v>1312.677474344533</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.113577790339</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7708094800807</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,40 +7162,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7262,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>609.4538236255814</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>437.4812605044974</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
         <v>274.1644876312681</v>
@@ -7353,31 +7353,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025269</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.090328421558</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1825.090328421558</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1543.378861029587</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1268.5264572021</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1025.962560647905</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.6197923376471</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O41" t="n">
-        <v>4547.761764445321</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445321</v>
+        <v>4637.488747086102</v>
       </c>
       <c r="Q41" t="n">
         <v>5003.847243949504</v>
@@ -7441,22 +7441,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.554378867278</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>4529.262127278774</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>4171.772712405023</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>690.5618714473296</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N42" t="n">
-        <v>1779.8768179202</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.615339060613</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C43" t="n">
-        <v>3734.642775939529</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D43" t="n">
-        <v>3571.3260030663</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E43" t="n">
-        <v>3405.117797219153</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="V43" t="n">
-        <v>4407.810511198358</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W43" t="n">
-        <v>4132.95810737087</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X43" t="n">
-        <v>4132.95810737087</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y43" t="n">
-        <v>3906.615339060613</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="44">
@@ -7648,19 +7648,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>811.7639428804554</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1741.388990499732</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2745.67509191879</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
         <v>3721.926150405491</v>
@@ -7687,13 +7687,13 @@
         <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>4031.958421451902</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M45" t="n">
-        <v>4031.958421451902</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3571.3260030663</v>
+        <v>1083.489499143503</v>
       </c>
       <c r="C46" t="n">
-        <v>3571.3260030663</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="D46" t="n">
-        <v>3571.3260030663</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E46" t="n">
-        <v>3405.117797219153</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F46" t="n">
-        <v>3233.256022993713</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G46" t="n">
-        <v>3066.999053287946</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H46" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="U46" t="n">
-        <v>4354.232642596015</v>
+        <v>2017.414536547508</v>
       </c>
       <c r="V46" t="n">
-        <v>4072.521175204045</v>
+        <v>2017.414536547508</v>
       </c>
       <c r="W46" t="n">
-        <v>3797.668771376558</v>
+        <v>1742.562132720021</v>
       </c>
       <c r="X46" t="n">
-        <v>3797.668771376558</v>
+        <v>1499.998236165826</v>
       </c>
       <c r="Y46" t="n">
-        <v>3571.3260030663</v>
+        <v>1273.655467855569</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>594.539855548217</v>
@@ -7993,13 +7993,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,16 +8066,16 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>96.76900350898819</v>
+        <v>378.5549082613589</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8221,25 +8221,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955939</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>177.8131985346731</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8312,13 +8312,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8455,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>110.4928214404737</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1035.799731739446</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,7 +8783,7 @@
         <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>145.8396822246349</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8941,10 +8941,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>251.9371478624388</v>
+        <v>382.8829480395223</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9008,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>700.5970200580485</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>625.182225377852</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951743</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>417.8918098719783</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>271.9410947697819</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9488,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>117.3609790173131</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,10 +9731,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9953,10 +9953,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10117,25 +10117,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>772.395863235019</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>716.4444307130257</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>238.1216346371742</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,25 +10433,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166155</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>420.03429863453</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>867.7084382103637</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>406.1837623454084</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11141,19 +11141,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O42" t="n">
-        <v>70.51375583797689</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11162,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>754.6403563518451</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.048909524251</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>71.98949189919253</v>
       </c>
       <c r="W13" t="n">
-        <v>160.7847827380282</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.648410051341621</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5602418056114</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>113.0089626044124</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>56.16198359623262</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>66.4407354247175</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.56495090172237</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>50.50354611506967</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>66.4407354247175</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>15.61718469075893</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>20.53473220669969</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>38.61621282745647</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>111.4072633179874</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>52.37513777582056</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.23940003763305</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>2.858720208685071</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>73.42412869296891</v>
       </c>
       <c r="U41" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>207.1065456054738</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>90.17202715685875</v>
+        <v>185.3716196335914</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651592.0531202651</v>
+        <v>651592.0531202649</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661712.4902842399</v>
+        <v>661712.49028424</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661712.49028424</v>
+        <v>661712.4902842399</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661712.49028424</v>
+        <v>661712.4902842399</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661712.49028424</v>
+        <v>661712.4902842399</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651592.053120265</v>
+        <v>651592.0531202651</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651592.0531202651</v>
+        <v>651592.053120265</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>407709.8676078143</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="E2" t="n">
         <v>387405.0806156914</v>
       </c>
       <c r="F2" t="n">
-        <v>387405.0806156913</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="G2" t="n">
+        <v>393421.2821962133</v>
+      </c>
+      <c r="H2" t="n">
         <v>393421.2821962134</v>
-      </c>
-      <c r="H2" t="n">
-        <v>393421.2821962135</v>
       </c>
       <c r="I2" t="n">
         <v>393421.2821962133</v>
       </c>
       <c r="J2" t="n">
+        <v>393421.2821962133</v>
+      </c>
+      <c r="K2" t="n">
         <v>393421.2821962132</v>
-      </c>
-      <c r="K2" t="n">
-        <v>393421.2821962133</v>
       </c>
       <c r="L2" t="n">
         <v>393421.2821962132</v>
       </c>
       <c r="M2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="N2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962132</v>
       </c>
       <c r="O2" t="n">
-        <v>387405.0806156911</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="P2" t="n">
-        <v>387405.0806156912</v>
+        <v>387405.0806156915</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>182621.065515899</v>
       </c>
       <c r="C4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
         <v>182621.0655158991</v>
@@ -26432,22 +26432,22 @@
         <v>71271.33883915341</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="J4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="J4" t="n">
-        <v>72380.62724986367</v>
-      </c>
       <c r="K4" t="n">
-        <v>72380.62724986365</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
         <v>72380.62724986373</v>
@@ -26456,10 +26456,10 @@
         <v>72380.62724986373</v>
       </c>
       <c r="O4" t="n">
+        <v>71271.3388391534</v>
+      </c>
+      <c r="P4" t="n">
         <v>71271.33883915341</v>
-      </c>
-      <c r="P4" t="n">
-        <v>71271.3388391534</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-28762.1823602501</v>
       </c>
       <c r="C6" t="n">
+        <v>157642.5510544872</v>
+      </c>
+      <c r="D6" t="n">
         <v>157642.5510544871</v>
       </c>
-      <c r="D6" t="n">
-        <v>157642.5510544869</v>
-      </c>
       <c r="E6" t="n">
-        <v>32642.97605194457</v>
+        <v>32570.45895554413</v>
       </c>
       <c r="F6" t="n">
-        <v>240075.2636685054</v>
+        <v>240002.7465721052</v>
       </c>
       <c r="G6" t="n">
-        <v>235664.9706744386</v>
+        <v>235613.9400122541</v>
       </c>
       <c r="H6" t="n">
-        <v>243290.5927579201</v>
+        <v>243239.5620957357</v>
       </c>
       <c r="I6" t="n">
-        <v>243290.5927579199</v>
+        <v>243239.5620957356</v>
       </c>
       <c r="J6" t="n">
-        <v>97756.92282310333</v>
+        <v>97705.8921609191</v>
       </c>
       <c r="K6" t="n">
-        <v>243290.5927579199</v>
+        <v>243239.5620957355</v>
       </c>
       <c r="L6" t="n">
-        <v>243290.5927579198</v>
+        <v>243239.5620957355</v>
       </c>
       <c r="M6" t="n">
-        <v>70160.10155228013</v>
+        <v>70109.07089009606</v>
       </c>
       <c r="N6" t="n">
-        <v>243290.59275792</v>
+        <v>243239.5620957355</v>
       </c>
       <c r="O6" t="n">
-        <v>240075.2636685052</v>
+        <v>240002.746572105</v>
       </c>
       <c r="P6" t="n">
-        <v>240075.2636685054</v>
+        <v>240002.7465721052</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>279.9424765091179</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>371.3345117074836</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>112.9606863843802</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>58.60684960120378</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -27678,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>350.5048792244489</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.1965332168822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.6172179931334369</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27824,13 +27824,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>158.4132499202498</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>273.7967702455326</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>279.9424765091181</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>163.0447290920667</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>556.2278131155941</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>75.42597529544652</v>
+        <v>357.2118800478172</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34941,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>155.2981118204435</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>73.0615585410419</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>440.0596680121639</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>998.3684688400139</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>122.6677925024127</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35661,10 +35661,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>214.3617860522075</v>
+        <v>345.307586229291</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>678.8261788532199</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35895,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>587.9026025434059</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>395.492576038645</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>249.1940564808034</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>58.0720487112745</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>94.84589230308353</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36837,25 +36837,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355872</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>679.0534713570016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>200.7306752811501</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391573</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>830.3174788543397</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>370.0590877408104</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O42" t="n">
-        <v>47.34186611575466</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>718.8757555570357</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
